--- a/Diferentbranch/bin/Debug/UtilityExcel.xlsx
+++ b/Diferentbranch/bin/Debug/UtilityExcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\WindowsFormsApp1\Diferentbranch\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC--ForWork-master\Diferentbranch\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09C6808-AA9D-44ED-88A8-6C5CB2196F03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA013719-4B4D-41DF-AEC4-FAD6150EA369}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="51">
   <si>
     <t>test</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>16/04/2019</t>
   </si>
 </sst>
 </file>
@@ -580,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D93A5A3-44B6-4C9B-AD12-9F7B6D444A69}">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F63" sqref="F63"/>
@@ -1581,6 +1584,26 @@
         <v>47</v>
       </c>
       <c r="H64" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1673,7 +1696,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1700,15 +1723,15 @@
         <v>4</v>
       </c>
       <c r="J15" s="2">
-        <v>0.39374999999999999</v>
+        <v>0.6791666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="6">
-        <v>43500</v>
+      <c r="J16" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="9:10" x14ac:dyDescent="0.25">
